--- a/Data/Raw/Diet_Nutritional_Composition.xlsx
+++ b/Data/Raw/Diet_Nutritional_Composition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsieler/Dropbox/Mac (2)/Documents/Sharpton_Lab/Projects_Repository/Kent/ZF-Diet_Infection/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA7BDA-8736-7449-B5C9-356782E9655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F60D9-911B-FD4D-B605-82A67CCF1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16760" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{CD577EA2-738D-5C4F-A9E0-31F263079D16}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CD577EA2-738D-5C4F-A9E0-31F263079D16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Protein</t>
   </si>
@@ -157,16 +157,34 @@
   <si>
     <t>Artemia</t>
   </si>
+  <si>
+    <t>*Estimated</t>
+  </si>
+  <si>
+    <t>Leight et al 2018</t>
+  </si>
+  <si>
+    <t>Our study</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Low Pro/Fat</t>
+  </si>
+  <si>
+    <t>High Pro/Fat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,14 +223,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +267,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -270,7 +300,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,28 +323,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -323,25 +344,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -359,8 +374,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -685,6 +727,904 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6694-2746-809B-B213E2184DE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="266236928"/>
+        <c:axId val="402888991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="266236928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402888991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402888991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266236928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dietary Profile of Diets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15490000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Watts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZIRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5282473586078309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1350994406463642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7768800497203231E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>6.2799999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ancestral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carnivore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omnivore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$33:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Herbivore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$33:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.18E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-756A-D24E-8BDD-089D1A40D34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Artemia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Protein</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lipids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carbs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fiber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-756A-D24E-8BDD-089D1A40D34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,7 +1871,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1481,16 +2964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1510,6 +2993,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FE5433-AA7D-AD49-9C82-39EB3C29F7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1833,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF32E04-7E3C-254F-B9DC-13108AF1F507}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,13 +3372,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -1876,56 +3397,56 @@
         <v>13</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1812</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>500</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>453</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>453</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="3">
         <f>SUM(B3:E3)</f>
         <v>3218</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <f>B3/$F$3</f>
         <v>0.56308266003729024</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <f t="shared" ref="C4:E4" si="0">C3/$F$3</f>
         <v>0.15537600994406464</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>0.14077066500932256</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.14077066500932256</v>
       </c>
@@ -1939,23 +3460,23 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <f>0.55*B4</f>
         <v>0.30969546302050965</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <f>0.41*C4</f>
         <v>6.37041640770665E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <f>0.55*D4</f>
         <v>7.7423865755127413E-2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <f>0.55*E4</f>
         <v>7.7423865755127413E-2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <f>SUM(B5:E5)</f>
         <v>0.5282473586078309</v>
       </c>
@@ -1970,23 +3491,23 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <f>0.15*B4</f>
         <v>8.4462399005593533E-2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <f>0.04*C4</f>
         <v>6.2150403977625857E-3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <f>0.15*C4</f>
         <v>2.3306401491609695E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <f>0.15*D4</f>
         <v>2.1115599751398383E-2</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <f t="shared" ref="F6:F10" si="1">SUM(B6:E6)</f>
         <v>0.1350994406463642</v>
       </c>
@@ -2001,13 +3522,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>0.1162</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
         <v>0.1162</v>
       </c>
@@ -2022,17 +3543,17 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <f>0.015*B4</f>
         <v>8.446239900559354E-3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <f>0.06*C4</f>
         <v>9.322560596643879E-3</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>1.7768800497203231E-2</v>
       </c>
@@ -2050,17 +3571,17 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <f>0.015*B4</f>
         <v>8.446239900559354E-3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <f>0.006*C4</f>
         <v>9.3225605966438792E-4</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>9.3784959602237414E-3</v>
       </c>
@@ -2075,7 +3596,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>(1-SUM(H5:H10))</f>
@@ -2090,51 +3611,51 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <f>0.12*B4</f>
         <v>6.7569919204474832E-2</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12">
         <f>0.12*D4</f>
         <v>1.6892479801118708E-2</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <f>0.12*E4</f>
         <v>1.6892479801118708E-2</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>0.15490000000000001</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="18">
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2151,7 +3672,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2162,7 +3683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2173,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +3705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2195,34 +3716,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="D32" s="26" t="s">
+    <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="L31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="28" t="s">
         <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="2">
@@ -2231,10 +3775,10 @@
       <c r="E33" s="2">
         <v>0.46</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <v>0.5282473586078309</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="20">
         <v>0.55000000000000004</v>
       </c>
       <c r="H33" s="2">
@@ -2246,12 +3790,12 @@
       <c r="J33" s="2">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="30">
         <v>0.5837</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="2">
@@ -2260,10 +3804,10 @@
       <c r="E34" s="2">
         <v>0.11</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <v>0.1350994406463642</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="20">
         <v>0.15</v>
       </c>
       <c r="H34" s="2">
@@ -2275,12 +3819,12 @@
       <c r="J34" s="2">
         <v>0.11749999999999999</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="30">
         <v>0.14660000000000001</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2">
@@ -2289,10 +3833,10 @@
       <c r="E35" s="2">
         <v>0.13250000000000001</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="29">
         <v>0.1162</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="20">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H35" s="2">
@@ -2304,12 +3848,12 @@
       <c r="J35" s="2">
         <v>0.75260000000000005</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="30">
         <v>5.21E-2</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2">
@@ -2318,10 +3862,10 @@
       <c r="E36" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="12">
         <v>1.7768800497203231E-2</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H36" s="2">
@@ -2333,24 +3877,24 @@
       <c r="J36" s="2">
         <v>0.6</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="30">
         <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="31">
         <v>0.15490000000000001</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="30">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="20">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="H37" s="2">
@@ -2362,13 +3906,21 @@
       <c r="J37" s="2">
         <v>2.18E-2</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="30">
         <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="C40" s="32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0A4CDDB4-6F03-204D-8460-8F3B723C804B}"/>

--- a/Data/Raw/Diet_Nutritional_Composition.xlsx
+++ b/Data/Raw/Diet_Nutritional_Composition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsieler/Dropbox/Mac (2)/Documents/Sharpton_Lab/Projects_Repository/Kent/ZF-Diet_Infection/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F60D9-911B-FD4D-B605-82A67CCF1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C5CD4-4A60-FA40-B9AC-2053B629D316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CD577EA2-738D-5C4F-A9E0-31F263079D16}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>tc={DE599A06-2B85-2441-9CBE-8F332CF2208B}</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{881000BE-C048-D44A-BE58-7C551809C309}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{881000BE-C048-D44A-BE58-7C551809C309}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +49,7 @@
     Number derived from Fowler et al. 2019</t>
       </text>
     </comment>
-    <comment ref="J32" authorId="1" shapeId="0" xr:uid="{DE599A06-2B85-2441-9CBE-8F332CF2208B}">
+    <comment ref="Q32" authorId="1" shapeId="0" xr:uid="{DE599A06-2B85-2441-9CBE-8F332CF2208B}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Protein</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Leight et al 2018</t>
   </si>
   <si>
-    <t>Our study</t>
-  </si>
-  <si>
     <t>Stephens</t>
   </si>
   <si>
@@ -174,6 +171,57 @@
   </si>
   <si>
     <t>High Pro/Fat</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>ZIRC (Adult)</t>
+  </si>
+  <si>
+    <t>Gemma (Adult)</t>
+  </si>
+  <si>
+    <t>Watts (Adult)</t>
+  </si>
+  <si>
+    <t>ZIRC (Juvenile)</t>
+  </si>
+  <si>
+    <t>Golden Pearl 200-300</t>
+  </si>
+  <si>
+    <t>Ziegler Larval Diet AP-100</t>
+  </si>
+  <si>
+    <t>Gemma (Juvenile)</t>
+  </si>
+  <si>
+    <t>Watts (Juvenile)</t>
+  </si>
+  <si>
+    <t>Gemma 150 micron</t>
+  </si>
+  <si>
+    <t>Gemma 300 micron</t>
+  </si>
+  <si>
+    <t>Gemma 500 micron</t>
+  </si>
+  <si>
+    <t>Semova2012</t>
+  </si>
+  <si>
+    <t>Control Diet</t>
+  </si>
+  <si>
+    <t>Low Cal Diet</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -184,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +270,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -300,7 +354,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,11 +453,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -504,7 +595,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$32</c:f>
+              <c:f>Sheet1!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,7 +616,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -548,7 +639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:f>Sheet1!$G$33:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -581,7 +672,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$32</c:f>
+              <c:f>Sheet1!$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -602,7 +693,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -625,7 +716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:f>Sheet1!$H$33:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -633,7 +724,7 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13250000000000001</c:v>
@@ -658,7 +749,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$32</c:f>
+              <c:f>Sheet1!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,7 +770,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -702,7 +793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$33:$F$37</c:f>
+              <c:f>Sheet1!$I$33:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1014,7 +1105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$32</c:f>
+              <c:f>Sheet1!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1035,7 +1126,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1058,7 +1149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:f>Sheet1!$G$33:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1091,7 +1182,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$32</c:f>
+              <c:f>Sheet1!$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1112,7 +1203,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1135,7 +1226,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:f>Sheet1!$H$33:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1143,7 +1234,7 @@
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13250000000000001</c:v>
@@ -1168,7 +1259,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$32</c:f>
+              <c:f>Sheet1!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,7 +1280,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1212,7 +1303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$33:$F$37</c:f>
+              <c:f>Sheet1!$I$33:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1245,7 +1336,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$32</c:f>
+              <c:f>Sheet1!$L$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1266,7 +1357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1289,7 +1380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$33:$G$37</c:f>
+              <c:f>Sheet1!$L$33:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1322,7 +1413,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$32</c:f>
+              <c:f>Sheet1!$N$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1343,7 +1434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1366,7 +1457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$33:$H$37</c:f>
+              <c:f>Sheet1!$N$33:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1399,7 +1490,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$32</c:f>
+              <c:f>Sheet1!$P$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,7 +1511,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1443,7 +1534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$33:$I$37</c:f>
+              <c:f>Sheet1!$P$33:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1476,7 +1567,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$32</c:f>
+              <c:f>Sheet1!$Q$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1497,7 +1588,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1520,7 +1611,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$33:$J$37</c:f>
+              <c:f>Sheet1!$Q$33:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1553,7 +1644,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$32</c:f>
+              <c:f>Sheet1!$R$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1577,7 +1668,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1600,7 +1691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$33:$K$37</c:f>
+              <c:f>Sheet1!$R$33:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2921,13 +3012,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>179324</xdr:rowOff>
@@ -2964,13 +3055,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -3000,13 +3091,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -3342,10 +3433,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B7" dT="2022-08-09T01:21:56.36" personId="{CC720131-DA67-C64F-A3F2-ACF05801969D}" id="{881000BE-C048-D44A-BE58-7C551809C309}">
+  <threadedComment ref="E7" dT="2022-08-09T01:21:56.36" personId="{CC720131-DA67-C64F-A3F2-ACF05801969D}" id="{881000BE-C048-D44A-BE58-7C551809C309}">
     <text>Number derived from Fowler et al. 2019</text>
   </threadedComment>
-  <threadedComment ref="J32" dT="2022-08-10T23:25:02.56" personId="{CC720131-DA67-C64F-A3F2-ACF05801969D}" id="{DE599A06-2B85-2441-9CBE-8F332CF2208B}">
+  <threadedComment ref="Q32" dT="2022-08-10T23:25:02.56" personId="{CC720131-DA67-C64F-A3F2-ACF05801969D}" id="{DE599A06-2B85-2441-9CBE-8F332CF2208B}">
     <text xml:space="preserve">Data from Leigh et al 2018
 </text>
   </threadedComment>
@@ -3354,582 +3445,1072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF32E04-7E3C-254F-B9DC-13108AF1F507}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="10" width="10.83203125" style="2"/>
+    <col min="2" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="11" width="12.1640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="17" width="10.83203125" style="2"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="14" t="s">
-        <v>11</v>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>250</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(B3:C3)</f>
+        <v>750</v>
+      </c>
+      <c r="E3" s="8">
         <v>1812</v>
       </c>
-      <c r="C3" s="9">
+      <c r="F3" s="9">
         <v>500</v>
       </c>
-      <c r="D3" s="9">
+      <c r="G3" s="9">
         <v>453</v>
       </c>
-      <c r="E3" s="9">
+      <c r="H3" s="9">
         <v>453</v>
       </c>
-      <c r="F3" s="3">
-        <f>SUM(B3:E3)</f>
+      <c r="I3" s="3">
+        <f>SUM(E3:H3)</f>
         <v>3218</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10">
-        <f>B3/$F$3</f>
+      <c r="B4" s="38">
+        <f>B3/$D$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="38">
+        <f>C3/$D$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="10">
+        <f>E3/$I$3</f>
         <v>0.56308266003729024</v>
       </c>
-      <c r="C4" s="10">
-        <f t="shared" ref="C4:E4" si="0">C3/$F$3</f>
+      <c r="F4" s="10">
+        <f>F3/$I$3</f>
         <v>0.15537600994406464</v>
       </c>
-      <c r="D4" s="10">
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:H4" si="0">G3/$I$3</f>
+        <v>0.14077066500932256</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>0.14077066500932256</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14077066500932256</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11">
-        <f>0.55*B4</f>
+      <c r="B5">
+        <f>0.5*B4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5">
+        <f>0.55*C4</f>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="shared" ref="D5:D21" si="1">SUM(B5:C5)</f>
+        <v>0.51666666666666661</v>
+      </c>
+      <c r="E5" s="11">
+        <f>0.55*E4</f>
         <v>0.30969546302050965</v>
       </c>
-      <c r="C5" s="12">
-        <f>0.41*C4</f>
+      <c r="F5" s="12">
+        <f>0.41*F4</f>
         <v>6.37041640770665E-2</v>
       </c>
-      <c r="D5" s="12">
-        <f>0.55*D4</f>
+      <c r="G5" s="12">
+        <f>0.55*G4</f>
         <v>7.7423865755127413E-2</v>
       </c>
-      <c r="E5" s="12">
-        <f>0.55*E4</f>
+      <c r="H5" s="12">
+        <f>0.55*H4</f>
         <v>7.7423865755127413E-2</v>
       </c>
-      <c r="F5" s="17">
-        <f>SUM(B5:E5)</f>
+      <c r="I5" s="17">
+        <f>SUM(E5:H5)</f>
         <v>0.5282473586078309</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="17"/>
+      <c r="K5" s="3">
+        <f>0.59*$K$4</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L5" s="3">
+        <f>0.59*$L$4</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="M5" s="3">
+        <f>SUM(K5:L5)</f>
         <v>0.59</v>
       </c>
-      <c r="J5" s="2">
+      <c r="N5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="P5" s="18">
         <v>0.46</v>
       </c>
+      <c r="Q5" s="2">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
-        <f>0.15*B4</f>
+      <c r="B6">
+        <f>0.12*B4</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="C6">
+        <f>0.15*C4</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" si="1"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="E6" s="11">
+        <f>0.15*E4</f>
         <v>8.4462399005593533E-2</v>
       </c>
-      <c r="C6" s="12">
-        <f>0.04*C4</f>
+      <c r="F6" s="12">
+        <f>0.04*F4</f>
         <v>6.2150403977625857E-3</v>
       </c>
-      <c r="D6" s="12">
-        <f>0.15*C4</f>
+      <c r="G6" s="12">
+        <f>0.15*F4</f>
         <v>2.3306401491609695E-2</v>
       </c>
-      <c r="E6" s="12">
-        <f>0.15*D4</f>
+      <c r="H6" s="12">
+        <f>0.15*G4</f>
         <v>2.1115599751398383E-2</v>
       </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F10" si="1">SUM(B6:E6)</f>
+      <c r="I6" s="17">
+        <f t="shared" ref="I6:I10" si="2">SUM(E6:H6)</f>
         <v>0.1350994406463642</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="17"/>
+      <c r="K6" s="3">
+        <f>0.14*$K$4</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <f>0.14*$L$4</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>SUM(K6:L6)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.1162</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17">
-        <f t="shared" si="1"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17">
+        <f t="shared" si="2"/>
         <v>0.1162</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="17"/>
+      <c r="N7" s="2">
         <v>0.02</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="18">
         <v>0.13250000000000001</v>
       </c>
+      <c r="Q7" s="2">
+        <v>0.13250000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
-        <f>0.015*B4</f>
+      <c r="B8">
+        <f>0.025*B4</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <f>0.015*E4</f>
         <v>8.446239900559354E-3</v>
       </c>
-      <c r="C8" s="12">
-        <f>0.06*C4</f>
+      <c r="F8" s="12">
+        <f>0.06*F4</f>
         <v>9.322560596643879E-3</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17">
-        <f t="shared" si="1"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17">
+        <f t="shared" si="2"/>
         <v>1.7768800497203231E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="17"/>
+      <c r="K8" s="3">
+        <f>0.002*$K$4</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>0.002*$L$4</f>
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="3">
+        <f>SUM(K8:L8)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="N8" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="P8" s="18">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="Q8" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="38"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11">
-        <f>0.015*B4</f>
+      <c r="B10">
+        <f>0.013*B4</f>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="38">
+        <f t="shared" si="1"/>
+        <v>8.6666666666666663E-3</v>
+      </c>
+      <c r="E10" s="11">
+        <f>0.015*E4</f>
         <v>8.446239900559354E-3</v>
       </c>
-      <c r="C10" s="12">
-        <f>0.006*C4</f>
+      <c r="F10" s="12">
+        <f>0.006*F4</f>
         <v>9.3225605966438792E-4</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17">
+        <f t="shared" si="2"/>
         <v>9.3784959602237414E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="17"/>
+      <c r="K10" s="3">
+        <f>0.013*$K$4</f>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="L10" s="3">
+        <f>0.013*$L$4</f>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <f>SUM(K10:L10)</f>
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="N10" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <f>(1-SUM(H5:H10))</f>
+      <c r="H12" s="2"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="N12" s="2">
+        <f>(1-SUM(N5:N10))</f>
         <v>0.23299999999999998</v>
       </c>
-      <c r="J12" s="2">
-        <f>(1-SUM(J5:J10))</f>
+      <c r="Q12" s="2">
+        <f>(1-SUM(Q5:Q10))</f>
         <v>0.27649999999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D13" s="38"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="13"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D14" s="38"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D15" s="38"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="11">
-        <f>0.12*B4</f>
+      <c r="B16">
+        <f>0.15*B4</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C16">
+        <f>0.08*C4</f>
+        <v>2.6666666666666665E-2</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="1"/>
+        <v>0.12666666666666665</v>
+      </c>
+      <c r="E16" s="11">
+        <f>0.12*E4</f>
         <v>6.7569919204474832E-2</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
-        <f>0.12*D4</f>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
+        <f>0.12*G4</f>
         <v>1.6892479801118708E-2</v>
       </c>
-      <c r="E16" s="12">
-        <f>0.12*E4</f>
+      <c r="H16" s="12">
+        <f>0.12*H4</f>
         <v>1.6892479801118708E-2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="I16" s="19">
         <v>0.15490000000000001</v>
       </c>
-      <c r="H16" s="18">
+      <c r="J16" s="39"/>
+      <c r="K16" s="3">
+        <f>0.14*$K$4</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>0.14*$L$4</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <f>SUM(K16:L16)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J16" s="18">
+      <c r="N16" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="18">
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <f>0.1*B4</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C17">
+        <f>0.08*C4</f>
+        <v>2.6666666666666665E-2</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="1"/>
+        <v>9.3333333333333324E-2</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.12</v>
       </c>
-      <c r="C17" s="3">
+      <c r="F17" s="3">
         <v>0.08</v>
       </c>
-      <c r="D17" s="3">
+      <c r="G17" s="3">
         <v>0.08</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="33" t="s">
+    <row r="31" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="L31" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="S31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="L31" s="34" t="s">
+      <c r="T31" s="36"/>
+      <c r="U31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="36"/>
+    </row>
+    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" t="s">
         <v>34</v>
       </c>
-      <c r="M31" s="34"/>
+      <c r="U32" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" s="42" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="D32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" t="s">
-        <v>35</v>
+    <row r="33" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.5282473586078309</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0.5282473586078309</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="2">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="R33" s="30">
+        <v>0.5837</v>
+      </c>
+      <c r="U33" s="41">
+        <v>45.135100000000001</v>
+      </c>
+      <c r="V33" s="41">
+        <v>20.026</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0.5282473586078309</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.40510000000000002</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="J33" s="2">
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="K33" s="30">
-        <v>0.5837</v>
+    <row r="34" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.1350994406463642</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.1350994406463642</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="2">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="R34" s="30">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="U34" s="41">
+        <v>15.0891</v>
+      </c>
+      <c r="V34" s="41">
+        <v>15.0753</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
+    <row r="35" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.1162</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0.1162</v>
+      </c>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="2">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.52239999999999998</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="R35" s="30">
+        <v>5.21E-2</v>
+      </c>
+      <c r="U35" s="41">
+        <v>12.1053</v>
+      </c>
+      <c r="V35" s="41">
+        <v>12.4536</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1.7768800497203231E-2</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1.7768800497203231E-2</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R36" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="U36" s="41">
+        <v>0.93210000000000015</v>
+      </c>
+      <c r="V36" s="41">
+        <v>0.62490000000000023</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="E37" s="30">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="31">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="H37" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0.1350994406463642</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.12039999999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="K34" s="30">
-        <v>0.14660000000000001</v>
+      <c r="I37" s="30">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>2.18E-2</v>
+      </c>
+      <c r="R37" s="30">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="U37" s="41">
+        <v>19.915299999999998</v>
+      </c>
+      <c r="V37" s="41">
+        <v>45.082500000000003</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0.1162</v>
-      </c>
-      <c r="G35" s="20">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.42030000000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.52239999999999998</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="K35" s="30">
-        <v>5.21E-2</v>
-      </c>
+    <row r="38" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="47">
+        <f>SUM(C33:C37)</f>
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" ref="D38:I38" si="3">SUM(D33:D37)</f>
+        <v>0.76350000000000018</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="3"/>
+        <v>0.86011559975139817</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47">
+        <f t="shared" si="3"/>
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="3"/>
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="I38" s="47">
+        <f t="shared" si="3"/>
+        <v>0.86011559975139817</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
     </row>
-    <row r="36" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F36" s="12">
-        <v>1.7768800497203231E-2</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K36" s="30">
-        <v>0.05</v>
-      </c>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
     </row>
-    <row r="37" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="31">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F37" s="30">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="G37" s="20">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H37" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2.18E-2</v>
-      </c>
-      <c r="K37" s="30">
-        <v>7.1999999999999995E-2</v>
-      </c>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
     </row>
-    <row r="40" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C40" s="32" t="s">
-        <v>31</v>
-      </c>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L31:M31"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0A4CDDB4-6F03-204D-8460-8F3B723C804B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5818FFD0-E2A7-5B49-A1A8-9720EB8FDD92}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{A595523C-2FDD-9648-AC2D-DF1DF15361AA}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{6A5B8F1B-6B54-BA40-BD06-D90696230441}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0A4CDDB4-6F03-204D-8460-8F3B723C804B}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{5818FFD0-E2A7-5B49-A1A8-9720EB8FDD92}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{A595523C-2FDD-9648-AC2D-DF1DF15361AA}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{6A5B8F1B-6B54-BA40-BD06-D90696230441}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{379FA0A8-F8E0-C948-9A45-9D11DE32C097}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{13E584EC-81D6-6D47-9347-CBB45315CD65}"/>
+    <hyperlink ref="K2" r:id="rId7" xr:uid="{B2BB0361-90CF-6441-BDA5-9CB9463B1570}"/>
+    <hyperlink ref="L2" r:id="rId8" xr:uid="{BBC58B81-4986-E945-8108-479ADF3C6293}"/>
+    <hyperlink ref="N2" r:id="rId9" xr:uid="{B0BF0F21-DFF9-5940-B661-080749CE3240}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>